--- a/02_Commandes/Commande_boutons.xlsx
+++ b/02_Commandes/Commande_boutons.xlsx
@@ -102,12 +102,6 @@
     <t>Capuchon ovale</t>
   </si>
   <si>
-    <t>679-3742-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/1WDS16/679-3742-ND/5804062</t>
-  </si>
-  <si>
     <t>https://www.digikey.ch/products/fr?keywords=679-2574-ND</t>
   </si>
   <si>
@@ -127,6 +121,12 @@
   </si>
   <si>
     <t>https://www.digikey.ch/products/fr?keywords=679-2562-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/1WD16/679-2144-ND/2034700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">679-2144-ND </t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +599,7 @@
         <v>43545</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>12</v>
@@ -628,7 +628,7 @@
         <v>43545</v>
       </c>
       <c r="B3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>15</v>
@@ -657,7 +657,7 @@
         <v>43545</v>
       </c>
       <c r="B4" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>17</v>
@@ -686,7 +686,7 @@
         <v>43545</v>
       </c>
       <c r="B5" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>16</v>
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E7" s="1">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -773,13 +773,13 @@
         <v>43545</v>
       </c>
       <c r="B8" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
         <v>0.53</v>
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,10 +805,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E9" s="1">
         <v>1.29</v>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -851,11 +851,12 @@
     <hyperlink ref="K6" r:id="rId5"/>
     <hyperlink ref="K8" r:id="rId6"/>
     <hyperlink ref="K9" r:id="rId7"/>
+    <hyperlink ref="K3" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
--- a/02_Commandes/Commande_boutons.xlsx
+++ b/02_Commandes/Commande_boutons.xlsx
@@ -63,9 +63,6 @@
     <t>679-3738-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/3FTH920/679-3738-ND/4968363?cur=CHF&amp;lang=fr</t>
-  </si>
-  <si>
     <t>Contact LED rouge</t>
   </si>
   <si>
@@ -75,42 +72,21 @@
     <t>Contact LED bleue</t>
   </si>
   <si>
-    <t>679-3739-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/3FTH940/679-3739-ND/4968364?cur=CHF&amp;lang=fr</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/3FTH980/679-3736-ND/4968365?cur=CHF&amp;lang=fr</t>
-  </si>
-  <si>
     <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH901/679-2251-ND/2034807?cur=CHF&amp;lang=fr</t>
   </si>
   <si>
     <t>679-2251-ND</t>
   </si>
   <si>
-    <t>679-3736-ND</t>
-  </si>
-  <si>
     <t>Capuchon triangulaire</t>
   </si>
   <si>
-    <t>679-2574-ND</t>
-  </si>
-  <si>
     <t>Capuchon ovale</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/products/fr?keywords=679-2574-ND</t>
-  </si>
-  <si>
     <t>Capuchon cercle</t>
   </si>
   <si>
-    <t>679-2562-ND</t>
-  </si>
-  <si>
     <t>Potentiomètre à glissière</t>
   </si>
   <si>
@@ -120,13 +96,37 @@
     <t>PTA2043-2015DPB103-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/products/fr?keywords=679-2562-ND</t>
-  </si>
-  <si>
     <t>https://www.digikey.ch/product-detail/fr/mec-switches/1WD16/679-2144-ND/2034700</t>
   </si>
   <si>
     <t xml:space="preserve">679-2144-ND </t>
+  </si>
+  <si>
+    <t>679-2253-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH942/679-2253-ND/2034809</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH982/679-2255-ND/2034811</t>
+  </si>
+  <si>
+    <t>679-2255-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/3FTH920/679-3738-ND/4968363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">679-2125-ND </t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/1U16/679-2125-ND/2034681</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/1V16/679-2129-ND/2034685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  679-2129-ND </t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +604,7 @@
       <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2">
@@ -620,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,13 +631,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -649,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -660,10 +660,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>7.76</v>
@@ -678,7 +678,7 @@
         <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -689,13 +689,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>4.59</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -718,10 +718,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <v>0.59</v>
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -747,10 +747,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E7" s="1">
         <v>0.62</v>
@@ -765,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -776,13 +776,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1">
-        <v>0.53</v>
+        <v>0.62</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
@@ -805,10 +805,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>1.29</v>
@@ -823,7 +823,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/02_Commandes/Commande_boutons.xlsx
+++ b/02_Commandes/Commande_boutons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Exemple" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -57,15 +57,6 @@
     <t>Digi-Key</t>
   </si>
   <si>
-    <t>Contact LED verte</t>
-  </si>
-  <si>
-    <t>679-3738-ND</t>
-  </si>
-  <si>
-    <t>Contact LED rouge</t>
-  </si>
-  <si>
     <t>Contact LED jaune</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>Capuchon triangulaire</t>
   </si>
   <si>
-    <t>Capuchon ovale</t>
-  </si>
-  <si>
     <t>Capuchon cercle</t>
   </si>
   <si>
@@ -96,27 +84,12 @@
     <t>PTA2043-2015DPB103-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/1WD16/679-2144-ND/2034700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">679-2144-ND </t>
-  </si>
-  <si>
     <t>679-2253-ND</t>
   </si>
   <si>
     <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH942/679-2253-ND/2034809</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH982/679-2255-ND/2034811</t>
-  </si>
-  <si>
-    <t>679-2255-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/3FTH920/679-3738-ND/4968363</t>
-  </si>
-  <si>
     <t xml:space="preserve">679-2125-ND </t>
   </si>
   <si>
@@ -127,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve">  679-2129-ND </t>
+  </si>
+  <si>
+    <t>Contact LED rouge/vert</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH98222/679-2256-ND/2034812</t>
+  </si>
+  <si>
+    <t>679-2256-ND</t>
   </si>
 </sst>
 </file>
@@ -177,12 +159,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I7"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Date" dataDxfId="8"/>
     <tableColumn id="2" name="Quantité" dataDxfId="7"/>
@@ -554,13 +533,13 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="9" width="20.7109375" style="1" customWidth="1"/>
   </cols>
@@ -572,7 +551,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -595,20 +574,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43545</v>
       </c>
       <c r="B2" s="1">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -619,25 +598,25 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>31</v>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43545</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7300000000000004</v>
+        <v>5.62</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -648,22 +627,22 @@
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>29</v>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43545</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>7.76</v>
@@ -677,22 +656,22 @@
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43545</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>4.59</v>
@@ -706,22 +685,22 @@
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>28</v>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43545</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>0.59</v>
@@ -735,22 +714,22 @@
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>34</v>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>43545</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>0.62</v>
@@ -764,66 +743,8 @@
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43545</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43545</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,19 +765,17 @@
     <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K5" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="K6" r:id="rId3"/>
     <hyperlink ref="K7" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K8" r:id="rId6"/>
-    <hyperlink ref="K9" r:id="rId7"/>
-    <hyperlink ref="K3" r:id="rId8"/>
+    <hyperlink ref="K2" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/02_Commandes/Commande_boutons.xlsx
+++ b/02_Commandes/Commande_boutons.xlsx
@@ -533,7 +533,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/02_Commandes/Commande_boutons.xlsx
+++ b/02_Commandes/Commande_boutons.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28515" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Exemple" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -57,15 +57,6 @@
     <t>Digi-Key</t>
   </si>
   <si>
-    <t>Contact LED verte</t>
-  </si>
-  <si>
-    <t>679-3738-ND</t>
-  </si>
-  <si>
-    <t>Contact LED rouge</t>
-  </si>
-  <si>
     <t>Contact LED jaune</t>
   </si>
   <si>
@@ -81,9 +72,6 @@
     <t>Capuchon triangulaire</t>
   </si>
   <si>
-    <t>Capuchon ovale</t>
-  </si>
-  <si>
     <t>Capuchon cercle</t>
   </si>
   <si>
@@ -96,27 +84,12 @@
     <t>PTA2043-2015DPB103-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/1WD16/679-2144-ND/2034700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">679-2144-ND </t>
-  </si>
-  <si>
     <t>679-2253-ND</t>
   </si>
   <si>
     <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH942/679-2253-ND/2034809</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH982/679-2255-ND/2034811</t>
-  </si>
-  <si>
-    <t>679-2255-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/product-detail/fr/mec-switches/3FTH920/679-3738-ND/4968363</t>
-  </si>
-  <si>
     <t xml:space="preserve">679-2125-ND </t>
   </si>
   <si>
@@ -127,6 +100,15 @@
   </si>
   <si>
     <t xml:space="preserve">  679-2129-ND </t>
+  </si>
+  <si>
+    <t>Contact LED rouge/vert</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/product-detail/fr/mec-switches/4FTH98222/679-2256-ND/2034812</t>
+  </si>
+  <si>
+    <t>679-2256-ND</t>
   </si>
 </sst>
 </file>
@@ -177,12 +159,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -247,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I7"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Date" dataDxfId="8"/>
     <tableColumn id="2" name="Quantité" dataDxfId="7"/>
@@ -554,13 +533,13 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
     <col min="5" max="9" width="20.7109375" style="1" customWidth="1"/>
   </cols>
@@ -572,7 +551,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -595,20 +574,20 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43545</v>
       </c>
       <c r="B2" s="1">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1.29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -619,25 +598,25 @@
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>31</v>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>43545</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="1">
-        <v>4.7300000000000004</v>
+        <v>5.62</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>11</v>
@@ -648,22 +627,22 @@
       <c r="I3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>29</v>
+      <c r="K3" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>43545</v>
       </c>
       <c r="B4" s="1">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1">
         <v>7.76</v>
@@ -677,22 +656,22 @@
       <c r="I4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>43545</v>
       </c>
       <c r="B5" s="1">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>4.59</v>
@@ -706,22 +685,22 @@
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>28</v>
+      <c r="K5" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>43545</v>
       </c>
       <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1">
         <v>0.59</v>
@@ -735,22 +714,22 @@
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>34</v>
+      <c r="K6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>43545</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>0.62</v>
@@ -764,66 +743,8 @@
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43545</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.62</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>43545</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="K7" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -844,19 +765,17 @@
     <row r="25" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K5" r:id="rId2"/>
-    <hyperlink ref="K4" r:id="rId3"/>
+    <hyperlink ref="K5" r:id="rId1"/>
+    <hyperlink ref="K4" r:id="rId2"/>
+    <hyperlink ref="K6" r:id="rId3"/>
     <hyperlink ref="K7" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K8" r:id="rId6"/>
-    <hyperlink ref="K9" r:id="rId7"/>
-    <hyperlink ref="K3" r:id="rId8"/>
+    <hyperlink ref="K2" r:id="rId5"/>
+    <hyperlink ref="K3" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>